--- a/split_data/standard_in/KeeLung/tech.xlsx
+++ b/split_data/standard_in/KeeLung/tech.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet_1_sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet_2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +473,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>備註</t>
+          <t>啟用日期</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed:4</t>
         </is>
       </c>
     </row>
@@ -487,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,9 +539,10 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>備註</t>
-        </is>
-      </c>
+          <t>啟用日期</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -546,22 +553,23 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>仁二路、愛一路口</t>
+          <t>仁五路段(愛一路至愛二路)公車停靠區及禁臨停區</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>車不暫停讓行人先行</t>
+          <t>違規(臨時)停車</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>仁愛區</t>
-        </is>
-      </c>
+          <t>109年1月1日</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -572,22 +580,23 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信二路、義一路口</t>
+          <t>東岸高架橋北上及南下路段</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>車不暫停讓行人先行</t>
+          <t>不遵守公路機關依處罰條例第五條規定所發布之命令(行駛禁行路段)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>中正區</t>
-        </is>
-      </c>
+          <t>109年2月1日</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,22 +607,23 @@
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信一路、義六路口</t>
+          <t>台62線(11.3K至6.2K西向)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>車不暫停讓行人先行</t>
+          <t>區間測速</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>信義區</t>
-        </is>
-      </c>
+          <t>111年4月1日</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -624,22 +634,23 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>明德一路、自治街口</t>
+          <t>台62甲線(3號隧道出口至東海街出口北向)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>車不暫停讓行人先行</t>
+          <t>區間測速</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>七堵區</t>
-        </is>
-      </c>
+          <t>111年4月1日</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -650,22 +661,23 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>東勢街、暖暖街口</t>
+          <t>愛一路、仁二路口</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>車不暫停讓行人先行</t>
+          <t>違規轉彎、違規迴轉、機車行駛行人穿越道</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>暖暖區</t>
-        </is>
-      </c>
+          <t>111年9月1日</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -676,20 +688,25 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>基金一路208巷口</t>
+          <t>八堵路127巷口</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>車不暫停讓行人先行</t>
+          <t>違規迴轉、機車行駛行人穿越道、闖紅燈</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>安樂區</t>
+          <t>111年12月1日</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>闖紅燈114年2月10日開始執法</t>
         </is>
       </c>
     </row>
@@ -702,20 +719,567 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>安一路、西定路口</t>
+          <t>中正路、信一路口</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>車不暫停讓行人先行</t>
+          <t>不遵守道路交通標誌標線或號誌指示行駛、跨越雙白線、違規迴轉</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>中山區</t>
+          <t>111年12月1日</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中正路、義一路口</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>闖紅燈、違規轉彎、違規迴轉</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>111年12月1日</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>水源路、源遠路口</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>闖紅燈、未依標誌標線或號誌指示行駛(違規轉彎、跨越雙白線)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>111年12月1日</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>愛三路段(仁一及仁二路口)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>車不暫停讓行人先行</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>112年11月1日</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>租賃式-本市7個行政區輪調</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>車不暫停讓行人先行</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>113年2月26日</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>忠一路與孝四路口</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>車不暫停讓行人先行、未依標誌標線或號誌指示行駛(違規轉彎)、違規迴轉</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>113年7月1日</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>仁一路與愛六路口</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>車不暫停讓行人先行、未依標誌標線或號誌指示行駛(違規轉彎)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>113年7月1日</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>仁一路與劉銘傳路口</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>車不暫停讓行人先行、未依標誌標線或號誌指示行駛(違規轉彎)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>113年7月1日</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>深溪路與深澳坑路口</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>車不暫停讓行人先行、未依標誌標線或號誌指示行駛(違規轉彎)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>113年7月1日</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>東勢街與暖暖街口</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>車不暫停讓行人先行、不遵守公路機關依處罰條例第五條規定所發布之命令(行駛禁行路段)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>113年7月1日</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光明路與自治街口</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>車不暫停讓行人先行</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>113年7月1日</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信一路與義二路口</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>車不暫停讓行人先行、未依標誌標線或號誌指示行駛</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>113年7月1日</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>麥金路與安樂路二段</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>車不暫停讓行人先行、闖紅燈、違規迴轉、未依標誌標線或號誌指示行駛(違規轉彎)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>113年7月1日</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安一路與西定路口</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>車不暫停讓行人先行</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>113年7月1日</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>武嶺街與基金一路口</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>車不暫停讓行人先行、未依標誌標線或號誌指示行駛(違規轉彎)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>113年7月1日</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>孝二路與忠四路口</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>跨越雙白線、未依標誌標線或號誌指示行駛(違規轉彎)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>113年12月1日</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>基金一路208巷口</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>車不暫停讓行人先行、違規停車</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>113年12月1日</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>源遠路與暖江橋口</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>不遵守公路機關依處罰條例第五條規定所發布之命令(行駛禁行路段)、闖紅燈、直行車占用轉彎車道</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>114年7月1日</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>編號</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>行政區</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>設置地點</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>速限</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>取締項目</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>拍攝方向</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>偵測距離</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>啟用日期</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>興隆街與過港路口</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>不遵守公路機關依處罰條例第五條規定所發布之命令(行駛禁行路段)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>114年7月1日</t>
         </is>
       </c>
     </row>
